--- a/biology/Zoologie/Dogania_subplana/Dogania_subplana.xlsx
+++ b/biology/Zoologie/Dogania_subplana/Dogania_subplana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dogania subplana ou Trionyx de Malaisie, unique représentant du genre Dogania, est une espèce de tortues de la famille des Trionychidae[1]. 
-C'est la plus petite tortue à carapace molle d'Asie du Sud-Est et de l'archipel indonésien[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dogania subplana ou Trionyx de Malaisie, unique représentant du genre Dogania, est une espèce de tortues de la famille des Trionychidae. 
+C'est la plus petite tortue à carapace molle d'Asie du Sud-Est et de l'archipel indonésien.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cette espèce se rencontre[1] :
+Cette espèce se rencontre :
 en Birmanie ;
 au Brunei ;
 en Indonésie, sur les îles de Java et de Sumatra et dans l’État du Kalimantan.
@@ -551,7 +565,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette tortue de taille moyenne a une longueur de carapace pouvant atteindre au maximum 35 cm de long. 
@@ -586,7 +602,9 @@
           <t>Menace</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ramassage de Trionyx de Malaisie pour la vente et la consommation locale met leur population en danger.
 </t>
@@ -617,7 +635,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Geoffroy Saint-Hilaire, 1809 : Mémoire sur les tortues molles, nouveau genre sous le nom de Trionyx, et sur la formation des carapaces. Annales du Musée d’Histoire Naturelle de Paris, vol. 14, p. 1-20 (texte intégral).
 Gray, 1844 : Catalogue of the tortoises, crocodiles and amphisbaenians in the collection of the British Museum. Edward Newman, London (texte intégral).</t>
